--- a/output.xlsx
+++ b/output.xlsx
@@ -368,7 +368,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -388,7 +388,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -448,7 +448,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -468,7 +468,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -548,7 +548,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -588,7 +588,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -648,7 +648,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -688,7 +688,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -868,7 +868,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -988,7 +988,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -1708,7 +1708,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -3148,7 +3148,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -3528,7 +3528,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -4168,7 +4168,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -4328,7 +4328,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -4608,7 +4608,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -4648,7 +4648,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -4708,7 +4708,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -4808,7 +4808,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -4988,7 +4988,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -5228,7 +5228,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -5268,7 +5268,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -5368,7 +5368,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -5408,7 +5408,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -5688,7 +5688,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -5848,7 +5848,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -5908,7 +5908,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -5928,7 +5928,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -5988,7 +5988,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -6008,7 +6008,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -6168,7 +6168,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -6528,7 +6528,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -6708,7 +6708,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -6748,7 +6748,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -6788,7 +6788,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -6928,7 +6928,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -7088,7 +7088,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -7308,7 +7308,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -7388,7 +7388,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -7408,7 +7408,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -7528,7 +7528,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -7568,7 +7568,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -7628,7 +7628,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -7668,7 +7668,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -7788,7 +7788,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -7928,7 +7928,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -7988,7 +7988,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -8008,7 +8008,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -8068,7 +8068,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -8088,7 +8088,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -8128,7 +8128,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -8168,7 +8168,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -8308,7 +8308,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -8368,7 +8368,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -8448,7 +8448,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -8488,7 +8488,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -8668,7 +8668,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -8768,7 +8768,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -9008,7 +9008,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -9168,7 +9168,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -9208,7 +9208,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -9228,7 +9228,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -9268,7 +9268,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -9288,7 +9288,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -9348,7 +9348,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -9488,7 +9488,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -9628,7 +9628,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -9668,7 +9668,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -9928,7 +9928,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -9948,7 +9948,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -10008,7 +10008,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -10148,7 +10148,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -10308,7 +10308,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -10668,7 +10668,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -10688,7 +10688,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -10848,7 +10848,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -10988,7 +10988,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -11088,7 +11088,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -11108,7 +11108,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -11128,7 +11128,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -11148,7 +11148,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -11228,7 +11228,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -11268,7 +11268,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -11408,7 +11408,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -11488,7 +11488,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -11528,7 +11528,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -11628,7 +11628,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -11708,7 +11708,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -11728,7 +11728,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -11828,7 +11828,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -11988,7 +11988,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -12108,7 +12108,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -12188,7 +12188,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -12308,7 +12308,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -12408,7 +12408,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -12528,7 +12528,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -12568,7 +12568,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -12848,7 +12848,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -12888,7 +12888,7 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -12968,7 +12968,7 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -13028,7 +13028,7 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -13048,7 +13048,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -13208,7 +13208,7 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -13268,7 +13268,7 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -13288,7 +13288,7 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -13328,7 +13328,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -13388,7 +13388,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -13548,7 +13548,7 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -13568,7 +13568,7 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -13788,7 +13788,7 @@
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -13928,7 +13928,7 @@
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -13948,7 +13948,7 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -13988,7 +13988,7 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -14088,7 +14088,7 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -14288,7 +14288,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -14528,7 +14528,7 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -14608,7 +14608,7 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -14668,7 +14668,7 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -14828,7 +14828,7 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -14848,7 +14848,7 @@
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -14868,7 +14868,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -14888,7 +14888,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -14928,7 +14928,7 @@
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -14988,7 +14988,7 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -15188,7 +15188,7 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -15228,7 +15228,7 @@
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -15548,7 +15548,7 @@
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -15728,7 +15728,7 @@
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -15768,7 +15768,7 @@
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -15908,7 +15908,7 @@
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -15928,7 +15928,7 @@
       </c>
       <c r="C779" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -15948,7 +15948,7 @@
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -15968,7 +15968,7 @@
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -16048,7 +16048,7 @@
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -16108,7 +16108,7 @@
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -16148,7 +16148,7 @@
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -16168,7 +16168,7 @@
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -16288,7 +16288,7 @@
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -16308,7 +16308,7 @@
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -16328,7 +16328,7 @@
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -16368,7 +16368,7 @@
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -16468,7 +16468,7 @@
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -16488,7 +16488,7 @@
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
@@ -16688,7 +16688,7 @@
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
